--- a/wage_ru.xlsx
+++ b/wage_ru.xlsx
@@ -585,210 +585,6 @@
         <v>-0.235607820419557</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>-0.2</v>
-      </c>
-      <c r="B14" t="n">
-        <v>66.1</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>43466</v>
-      </c>
-      <c r="D14" t="n">
-        <v>71.468113271552</v>
-      </c>
-      <c r="E14" t="n">
-        <v>-0.341647384263966</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>-0.2</v>
-      </c>
-      <c r="B15" t="n">
-        <v>65.76</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>43497</v>
-      </c>
-      <c r="D15" t="n">
-        <v>65.9032632707312</v>
-      </c>
-      <c r="E15" t="n">
-        <v>-0.260862920884332</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>-0.2</v>
-      </c>
-      <c r="B16" t="n">
-        <v>64.73</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>43525</v>
-      </c>
-      <c r="D16" t="n">
-        <v>72.0143071187599</v>
-      </c>
-      <c r="E16" t="n">
-        <v>-0.210218805535014</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>-0.2</v>
-      </c>
-      <c r="B17" t="n">
-        <v>64.69</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>43556</v>
-      </c>
-      <c r="D17" t="n">
-        <v>64.9723007459838</v>
-      </c>
-      <c r="E17" t="n">
-        <v>-0.308393764436529</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>-0.2</v>
-      </c>
-      <c r="B18" t="n">
-        <v>65.0583</v>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>43586</v>
-      </c>
-      <c r="D18" t="n">
-        <v>68.4887344982679</v>
-      </c>
-      <c r="E18" t="n">
-        <v>-0.37508229683404</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>-0.2</v>
-      </c>
-      <c r="B19" t="n">
-        <v>63.0756</v>
-      </c>
-      <c r="C19" s="1" t="n">
-        <v>43617</v>
-      </c>
-      <c r="D19" t="n">
-        <v>72.1026470180958</v>
-      </c>
-      <c r="E19" t="n">
-        <v>-0.346802507987239</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>-0.3</v>
-      </c>
-      <c r="B20" t="n">
-        <v>63.3791</v>
-      </c>
-      <c r="C20" s="1" t="n">
-        <v>43647</v>
-      </c>
-      <c r="D20" t="n">
-        <v>68.079677126288</v>
-      </c>
-      <c r="E20" t="n">
-        <v>-0.222004115984868</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>-0.4</v>
-      </c>
-      <c r="B21" t="n">
-        <v>66.4897</v>
-      </c>
-      <c r="C21" s="1" t="n">
-        <v>43678</v>
-      </c>
-      <c r="D21" t="n">
-        <v>72.5993649346339</v>
-      </c>
-      <c r="E21" t="n">
-        <v>-0.443535043830989</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>-0.4</v>
-      </c>
-      <c r="B22" t="n">
-        <v>64.4156</v>
-      </c>
-      <c r="C22" s="1" t="n">
-        <v>43709</v>
-      </c>
-      <c r="D22" t="n">
-        <v>67.0556870654623</v>
-      </c>
-      <c r="E22" t="n">
-        <v>-0.331134293752089</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>-0.4</v>
-      </c>
-      <c r="B23" t="n">
-        <v>63.8734</v>
-      </c>
-      <c r="C23" s="1" t="n">
-        <v>43739</v>
-      </c>
-      <c r="D23" t="n">
-        <v>71.3919096160413</v>
-      </c>
-      <c r="E23" t="n">
-        <v>-0.334018056717595</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>-0.4</v>
-      </c>
-      <c r="B24" t="n">
-        <v>64.0817</v>
-      </c>
-      <c r="C24" s="1" t="n">
-        <v>43770</v>
-      </c>
-      <c r="D24" t="n">
-        <v>68.9739640268741</v>
-      </c>
-      <c r="E24" t="n">
-        <v>-0.302823115963177</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>-0.4</v>
-      </c>
-      <c r="B25" t="n">
-        <v>61.9057</v>
-      </c>
-      <c r="C25" s="1" t="n">
-        <v>43800</v>
-      </c>
-      <c r="D25" t="n">
-        <v>65.7328743135518</v>
-      </c>
-      <c r="E25" t="n">
-        <v>-0.337274282915694</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
